--- a/config_10.12/game_activity_config.xlsx
+++ b/config_10.12/game_activity_config.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="277">
   <si>
     <t>line|行号</t>
   </si>
@@ -1098,6 +1098,34 @@
   </si>
   <si>
     <t>"act_058_cylb","panel"</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_crary_rebate_1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂返利</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>fkfl</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>fkfl</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>fkfl_not_new_player_can_show</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_ty_task","act_fkfl_new","panel"</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_ty_task","act_fkfl_not_new","panel"</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1758,13 +1786,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O101"/>
+  <dimension ref="A1:O103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="J82" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E79" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P101" sqref="P101"/>
+      <selection pane="bottomRight" activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6409,6 +6437,94 @@
         <v>15</v>
       </c>
     </row>
+    <row r="102" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A102" s="6">
+        <v>101</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C102" s="8">
+        <v>101</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="F102" s="6">
+        <v>1</v>
+      </c>
+      <c r="G102" s="6">
+        <v>1</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I102" s="6">
+        <v>-1</v>
+      </c>
+      <c r="J102" s="6">
+        <v>-1</v>
+      </c>
+      <c r="K102" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="L102" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="M102" s="65" t="s">
+        <v>275</v>
+      </c>
+      <c r="N102" s="6">
+        <v>1</v>
+      </c>
+      <c r="O102" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A103" s="6">
+        <v>102</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C103" s="8">
+        <v>102</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="F103" s="6">
+        <v>1</v>
+      </c>
+      <c r="G103" s="6">
+        <v>1</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="I103" s="6">
+        <v>-1</v>
+      </c>
+      <c r="J103" s="6">
+        <v>-1</v>
+      </c>
+      <c r="K103" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="L103" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="M103" s="65" t="s">
+        <v>276</v>
+      </c>
+      <c r="N103" s="6">
+        <v>1</v>
+      </c>
+      <c r="O103" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:O75"/>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -6419,18 +6535,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-  </bookSettings>
-</settings>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6441,14 +6553,18 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6458,13 +6574,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -6476,13 +6592,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
